--- a/P06/docs/Scrum.xlsx
+++ b/P06/docs/Scrum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kolade Favour\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879CF98A-53AA-45F3-9D25-F1F4B2557235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1983E5B-436A-4AB2-AB6A-A43393F0554C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="182">
   <si>
     <t>Product Name:</t>
   </si>
@@ -656,9 +656,6 @@
     <t>Finished in Sprint 1</t>
   </si>
   <si>
-    <t>In Work</t>
-  </si>
-  <si>
     <t>Completed Day 3</t>
   </si>
   <si>
@@ -704,9 +701,6 @@
     <t>Completed Day 5</t>
   </si>
   <si>
-    <t>allow user to leave the program</t>
-  </si>
-  <si>
     <t>Include list under animal in menubar</t>
   </si>
   <si>
@@ -732,6 +726,9 @@
   </si>
   <si>
     <t>allow user to see a list all the animlas they entered</t>
+  </si>
+  <si>
+    <t>allow user to leave the program through File &gt; Quit</t>
   </si>
 </sst>
 </file>
@@ -1246,16 +1243,16 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1870,10 +1867,10 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3556,8 +3553,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ98"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -3651,7 +3648,7 @@
       <c r="F5" s="44"/>
       <c r="G5" s="44"/>
       <c r="H5" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I5" s="5">
         <v>1001860786</v>
@@ -3789,11 +3786,11 @@
       </c>
       <c r="B14" s="2">
         <f>B13-C14</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" s="8">
         <f>COUNTIF(G$24:G$104,"Finished in Sprint 2")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="2"/>
@@ -3813,7 +3810,7 @@
       </c>
       <c r="B15" s="2">
         <f>B14-C15</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15" s="8">
         <f>COUNTIF(G$24:G$104,"Finished in Sprint 3")</f>
@@ -3837,7 +3834,7 @@
       </c>
       <c r="B16" s="2">
         <f>B15-C16</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(G$24:G$104,"Finished in Sprint 4")</f>
@@ -3857,7 +3854,7 @@
       </c>
       <c r="B17" s="2">
         <f>B16-C17</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C17" s="8">
         <f>COUNTIF(G$24:G$104,"Finished in Sprint 4")</f>
@@ -4122,7 +4119,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H28" s="22" t="s">
         <v>31</v>
@@ -4155,7 +4152,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H29" s="22" t="s">
         <v>31</v>
@@ -4188,7 +4185,7 @@
         <v>2</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="H30" s="22" t="s">
         <v>31</v>
@@ -4221,7 +4218,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H31" s="22" t="s">
         <v>31</v>
@@ -4254,7 +4251,7 @@
         <v>2</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H32" s="22" t="s">
         <v>36</v>
@@ -4287,7 +4284,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H33" s="22" t="s">
         <v>36</v>
@@ -4320,7 +4317,7 @@
         <v>2</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="H34" s="22" t="s">
         <v>36</v>
@@ -7836,7 +7833,7 @@
         <v>155</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -7847,10 +7844,10 @@
         <v>40</v>
       </c>
       <c r="D24" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" s="41" t="s">
         <v>159</v>
-      </c>
-      <c r="E24" s="41" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -7861,10 +7858,10 @@
         <v>40</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -8519,8 +8516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="B19" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -8730,11 +8727,11 @@
       </c>
       <c r="B13" s="31">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
@@ -8748,11 +8745,11 @@
       </c>
       <c r="B14" s="31">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
@@ -8798,10 +8795,10 @@
         <v>48</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -8812,10 +8809,10 @@
         <v>48</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -8826,10 +8823,10 @@
         <v>52</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8840,10 +8837,10 @@
         <v>52</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -8854,10 +8851,10 @@
         <v>48</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -8868,10 +8865,10 @@
         <v>52</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -8882,10 +8879,10 @@
         <v>52</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -8896,10 +8893,10 @@
         <v>56</v>
       </c>
       <c r="D24" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" s="41" t="s">
         <v>171</v>
-      </c>
-      <c r="E24" s="41" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -8910,10 +8907,10 @@
         <v>56</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -8924,10 +8921,10 @@
         <v>60</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -8938,10 +8935,10 @@
         <v>70</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -8952,10 +8949,10 @@
         <v>70</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E28" s="41" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -8966,10 +8963,10 @@
         <v>63</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -8980,10 +8977,10 @@
         <v>66</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -8994,10 +8991,10 @@
         <v>63</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -9008,10 +9005,10 @@
         <v>66</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:5">
